--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Provincia-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1363789688201541</v>
+        <v>0.1487883150812676</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.881743159984582</v>
+        <v>5.035967688736095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8683296802123982</v>
+        <v>0.6550619198168844</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.05482958842536208</v>
+        <v>-0.02975390844262273</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7287718400625519</v>
+        <v>0.8287624734892601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1754530103954627</v>
+        <v>0.05578838027308775</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.898283307493852</v>
+        <v>8.783145932688424</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.22659476877954</v>
+        <v>14.52593633596332</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.707226326021011</v>
+        <v>5.519835014788263</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3.493092839082345</v>
+        <v>3.732814330527124</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6.32253125938761</v>
+        <v>6.963012788016333</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.137804767025512</v>
+        <v>3.685930715577584</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>4.434948114017173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.612466683436423</v>
+        <v>7.612466683436425</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.8016577967888961</v>
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5651834451915835</v>
+        <v>0.2325947889735821</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.233538472075936</v>
+        <v>2.477553805211984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.301822405016586</v>
+        <v>4.369544195796978</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05231809572000364</v>
+        <v>0.006274201924203001</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.165908422567582</v>
+        <v>1.159542274980817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5965024739273317</v>
+        <v>0.5905915965503944</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.358786990405099</v>
+        <v>7.721578461259913</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.762031310953355</v>
+        <v>6.972512808762827</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.49979792342101</v>
+        <v>10.69550551351685</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.04726828312291</v>
+        <v>2.134436672004638</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>15.45517051940862</v>
+        <v>19.2326287026223</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.74833011651232</v>
+        <v>2.718726106277817</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>3.780208679117889</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.047568470245453</v>
+        <v>5.047568470245456</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>1.88885316017532</v>
@@ -791,7 +791,7 @@
         <v>2.465412639389869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.466547748641792</v>
+        <v>0.4665477486417923</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.195617664266027</v>
+        <v>1.667395468576073</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.034185080584698</v>
+        <v>1.160814616769899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7109087911214298</v>
+        <v>0.75415419018232</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2942467918356793</v>
+        <v>0.2546548093297724</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1986999312954758</v>
+        <v>0.159742278769953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05975307782508245</v>
+        <v>0.05139318443843042</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.500740306525454</v>
+        <v>9.255532854138568</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.32565352883859</v>
+        <v>7.278645865506165</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.798771016563622</v>
+        <v>9.205283333938697</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.650000184295403</v>
+        <v>5.922959886309036</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>9.016377549489764</v>
+        <v>9.565314727478412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.017555968337664</v>
+        <v>1.07676121882233</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>7.698783464084394</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.026197580934717</v>
+        <v>6.02619758093472</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>2.265934360632459</v>
@@ -873,7 +873,7 @@
         <v>1.60944774765267</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6940958605355264</v>
+        <v>0.6940958605355267</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.399941946017566</v>
+        <v>5.087583515505881</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.500236586191086</v>
+        <v>3.762598488389694</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.091699738759639</v>
+        <v>1.894382589892118</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.9336608484727984</v>
+        <v>0.7475259969315057</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4808597520947238</v>
+        <v>0.5265445289222808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1829020776468515</v>
+        <v>0.1549707565615547</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.30824872189042</v>
+        <v>13.38746413292426</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.08157051868485</v>
+        <v>12.07601138978235</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.572573460009725</v>
+        <v>9.412042722555876</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.042216103260927</v>
+        <v>4.971631632294552</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.621114524022846</v>
+        <v>3.736142318403719</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.495674701305546</v>
+        <v>1.41791715301928</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.281992852316199</v>
+        <v>2.4920992064702</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.725379262179094</v>
+        <v>0.5168416065529581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.186929967028755</v>
+        <v>4.371488716370316</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1512132125941715</v>
+        <v>0.1436619772553015</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.00291387742303357</v>
+        <v>-0.01829999365560835</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4242229202550321</v>
+        <v>0.5047509495171373</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.57719950451414</v>
+        <v>16.05513036449751</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.47345567225226</v>
+        <v>10.3753832128756</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.76765892923323</v>
+        <v>11.77074366410358</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.782374471179908</v>
+        <v>2.970027713496822</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.828554052915375</v>
+        <v>3.698865736115873</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.202051578916604</v>
+        <v>3.337290820183351</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>3.998222409687926</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10.37231911553324</v>
+        <v>10.37231911553323</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2783158459165016</v>
@@ -1037,7 +1037,7 @@
         <v>1.521651841398377</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6938834254209197</v>
+        <v>0.693883425420919</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.584452455616979</v>
+        <v>-2.718124339368665</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8652367422806472</v>
+        <v>0.6629688827477723</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.861915728442143</v>
+        <v>5.908554871144295</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3923478773499411</v>
+        <v>-0.3906922271981729</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1112181569398124</v>
+        <v>0.04383977625936852</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2657689216612037</v>
+        <v>0.3236600214985825</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.42839145823673</v>
+        <v>5.237564409268387</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.914011309280267</v>
+        <v>8.005952889676113</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.98347394224507</v>
+        <v>15.36762200957297</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.80704477847133</v>
+        <v>1.717452947047841</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.979449572831244</v>
+        <v>6.26637947964837</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.171770612819123</v>
+        <v>1.226650992070068</v>
       </c>
     </row>
     <row r="22">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.115859590312527</v>
+        <v>3.857922050040669</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.567075105029896</v>
+        <v>2.164388006839824</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.331288677378286</v>
+        <v>9.587574914993937</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1.099211948976641</v>
+        <v>1.077138248131412</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4568700596313144</v>
+        <v>0.3427367186498807</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9357039275541674</v>
+        <v>0.9943827532499255</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.334742888017809</v>
+        <v>9.248154103838067</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.020945109504602</v>
+        <v>7.73844077924072</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.77524043317794</v>
+        <v>15.96723229505893</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>5.596806866270398</v>
+        <v>5.393444077525645</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.79779876632973</v>
+        <v>2.526020250178377</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.403165764223206</v>
+        <v>2.4113398987381</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>6.818630682238528</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7.29733630711362</v>
+        <v>7.297336307113624</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>3.398833034413419</v>
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.829008057303775</v>
+        <v>3.725998910467328</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.368074237295902</v>
+        <v>4.542117942233367</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.106506462767427</v>
+        <v>5.166018450483218</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.531338663722146</v>
+        <v>1.198115270307958</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9751641115335691</v>
+        <v>0.9555080973872064</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9006545917928949</v>
+        <v>0.9696268933927625</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.790862529222878</v>
+        <v>7.630525408030092</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.533645321523384</v>
+        <v>9.465268017800433</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.657354252511087</v>
+        <v>9.427456223620968</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7.377209328288517</v>
+        <v>7.004752929780784</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.892465690045236</v>
+        <v>4.182397045254498</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.770725367518355</v>
+        <v>2.832244255014781</v>
       </c>
     </row>
     <row r="28">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.569823297415285</v>
+        <v>4.548137679938864</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.66153410890546</v>
+        <v>4.705218698530896</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.857719485682772</v>
+        <v>6.739400267931593</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>1.113067664060267</v>
+        <v>1.097886038926681</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1.307971707726002</v>
+        <v>1.307522069005215</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.905713807155581</v>
+        <v>0.8913057006029614</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.908273058179355</v>
+        <v>6.978045659052872</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.004419170418251</v>
+        <v>7.134873840276572</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.295369438111102</v>
+        <v>9.124347953886005</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2.219664430317888</v>
+        <v>2.268305366100129</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.630603480997502</v>
+        <v>2.632323417955749</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.4601403602798</v>
+        <v>1.440399271386344</v>
       </c>
     </row>
     <row r="31">
